--- a/assets/files/Tableau_de_synthèse-EpreuveE4-BTS_SIO_2023.xlsx
+++ b/assets/files/Tableau_de_synthèse-EpreuveE4-BTS_SIO_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugod\projects\portfolioFolders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugod\projects\portfolioFolders\portfolio\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0757453A-0441-447B-8F9F-1C15B7F8268C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85EF58B-8200-40E9-8221-B08B1531E071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="345" windowWidth="15810" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>▢ SISR</t>
   </si>
   <si>
-    <t>▢ SLAM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Réalisation en cours de formation
 </t>
   </si>
@@ -96,9 +93,6 @@
 (intitulé et liste des documents et productions associés)</t>
   </si>
   <si>
-    <t xml:space="preserve">N° candidat : </t>
-  </si>
-  <si>
     <t>Période (sous la forme du JJ/MM/AA au JJ/MM/AA)</t>
   </si>
   <si>
@@ -159,6 +153,12 @@
   </si>
   <si>
     <t>mai-juin-23</t>
+  </si>
+  <si>
+    <t>X SLAM</t>
+  </si>
+  <si>
+    <t>N° candidat : 02047398547</t>
   </si>
 </sst>
 </file>
@@ -717,9 +717,60 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -743,57 +794,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1105,8 +1105,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1119,56 +1119,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="35"/>
+      <c r="A3" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="52"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
+      <c r="A4" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
@@ -1176,27 +1176,27 @@
         <v>14</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="51"/>
+      <c r="A5" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>0</v>
@@ -1218,8 +1218,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="19" t="s">
         <v>9</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>11</v>
@@ -1275,16 +1275,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40"/>
+      <c r="A8" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="23">
         <v>45017</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="23">
         <v>45170</v>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="23">
         <v>45170</v>
@@ -1470,10 +1470,10 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -1564,10 +1564,10 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="21"/>
@@ -1792,16 +1792,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="43"/>
+      <c r="A19" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1840,10 +1840,10 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="21"/>
@@ -1889,10 +1889,10 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -2162,16 +2162,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46"/>
+      <c r="A27" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2210,10 +2210,10 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>35</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>37</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="21"/>
@@ -2620,6 +2620,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2627,11 +2632,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
